--- a/temp/pages/StructureDefinition-lrc-referral.xlsx
+++ b/temp/pages/StructureDefinition-lrc-referral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T18:05:24+02:00</t>
+    <t>2024-02-22T18:39:46+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-lrc-referral.xlsx
+++ b/temp/pages/StructureDefinition-lrc-referral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T18:39:46+02:00</t>
+    <t>2024-02-27T18:05:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-lrc-referral.xlsx
+++ b/temp/pages/StructureDefinition-lrc-referral.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T18:05:15+02:00</t>
+    <t>2024-03-03T08:59:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/StructureDefinition-lrc-referral.xlsx
+++ b/temp/pages/StructureDefinition-lrc-referral.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/StructureDefinition/lrc-referral</t>
+    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-referral</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-03T08:59:15+02:00</t>
+    <t>2024-03-03T10:40:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1212,7 +1212,7 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/ValueSet/lrc-referral-codes</t>
+    <t>http://ig.fhir-il-community.org/LRC/ValueSet/lrc-referral-codes</t>
   </si>
   <si>
     <t>Request.code</t>
